--- a/docs/collections/koumin2/metadata/data.xlsx
+++ b/docs/collections/koumin2/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="510">
   <si>
     <t>タイトル</t>
   </si>
@@ -50,6 +50,9 @@
     <t>請求記号</t>
   </si>
   <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
     <t>巻1</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/51e00cad-5338-4568-884d-0c67410c07fd.json</t>
+  </si>
+  <si>
     <t>51e00cad-5338-4568-884d-0c67410c07fd</t>
   </si>
   <si>
@@ -221,6 +227,9 @@
     <t>巻2</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0f3b3437-9b49-46e2-aa55-1f7c32b78371.json</t>
+  </si>
+  <si>
     <t>0f3b3437-9b49-46e2-aa55-1f7c32b78371</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
     <t>巻3</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1cf0b8e8-4801-48e9-953c-7660928c3b7a.json</t>
+  </si>
+  <si>
     <t>1cf0b8e8-4801-48e9-953c-7660928c3b7a</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
     <t>巻4</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/f0d6821b-8005-4a74-9752-29804bb57ab2.json</t>
+  </si>
+  <si>
     <t>f0d6821b-8005-4a74-9752-29804bb57ab2</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>巻5</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ef6b3ec4-8252-4aa9-a458-99f89c58f1d8.json</t>
+  </si>
+  <si>
     <t>ef6b3ec4-8252-4aa9-a458-99f89c58f1d8</t>
   </si>
   <si>
@@ -293,6 +311,9 @@
     <t>巻6</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/515f871a-7e54-4889-804d-ee1d91b0d45c.json</t>
+  </si>
+  <si>
     <t>515f871a-7e54-4889-804d-ee1d91b0d45c</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t>巻7</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/02d160c1-a695-4cf5-89bd-954958567f90.json</t>
+  </si>
+  <si>
     <t>02d160c1-a695-4cf5-89bd-954958567f90</t>
   </si>
   <si>
@@ -329,6 +353,9 @@
     <t>巻8</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/293c2285-2e3c-4988-9afd-200fc8c04ef4.json</t>
+  </si>
+  <si>
     <t>293c2285-2e3c-4988-9afd-200fc8c04ef4</t>
   </si>
   <si>
@@ -347,6 +374,9 @@
     <t>巻9</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/50f1b8dd-a4af-4e0d-8e88-795a5d2e2cf8.json</t>
+  </si>
+  <si>
     <t>50f1b8dd-a4af-4e0d-8e88-795a5d2e2cf8</t>
   </si>
   <si>
@@ -365,6 +395,9 @@
     <t>巻10</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6d0688e3-d0e4-46dc-a7a7-6eb0b6e2ca5f.json</t>
+  </si>
+  <si>
     <t>6d0688e3-d0e4-46dc-a7a7-6eb0b6e2ca5f</t>
   </si>
   <si>
@@ -383,6 +416,9 @@
     <t>巻11</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/617b8198-1f9c-4f74-aaaf-b7a83e9bc1c9.json</t>
+  </si>
+  <si>
     <t>617b8198-1f9c-4f74-aaaf-b7a83e9bc1c9</t>
   </si>
   <si>
@@ -401,6 +437,9 @@
     <t>巻12</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/fc0e2d36-6acc-48ab-9743-736737099b27.json</t>
+  </si>
+  <si>
     <t>fc0e2d36-6acc-48ab-9743-736737099b27</t>
   </si>
   <si>
@@ -419,6 +458,9 @@
     <t>巻13</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1ed2601b-d9d5-4495-8e7e-f3568dad05c4.json</t>
+  </si>
+  <si>
     <t>1ed2601b-d9d5-4495-8e7e-f3568dad05c4</t>
   </si>
   <si>
@@ -437,6 +479,9 @@
     <t>巻14</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/eab2630d-2d11-4a43-85e0-18c9d56ba554.json</t>
+  </si>
+  <si>
     <t>eab2630d-2d11-4a43-85e0-18c9d56ba554</t>
   </si>
   <si>
@@ -455,6 +500,9 @@
     <t>巻15</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/dd4da091-6aad-4a69-9102-d95fcfb08b85.json</t>
+  </si>
+  <si>
     <t>dd4da091-6aad-4a69-9102-d95fcfb08b85</t>
   </si>
   <si>
@@ -473,6 +521,9 @@
     <t>巻16</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2dfdc22c-d823-45ae-8f6b-e6f5cf0ee02b.json</t>
+  </si>
+  <si>
     <t>2dfdc22c-d823-45ae-8f6b-e6f5cf0ee02b</t>
   </si>
   <si>
@@ -491,6 +542,9 @@
     <t>巻17</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/92f2546c-4eb6-4af3-942a-bccbbc2e5a11.json</t>
+  </si>
+  <si>
     <t>92f2546c-4eb6-4af3-942a-bccbbc2e5a11</t>
   </si>
   <si>
@@ -509,6 +563,9 @@
     <t>巻18</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1037301e-3e6c-4a64-969d-12402d94fd01.json</t>
+  </si>
+  <si>
     <t>1037301e-3e6c-4a64-969d-12402d94fd01</t>
   </si>
   <si>
@@ -527,6 +584,9 @@
     <t>巻19</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/64e25707-5df1-4573-b921-47e82f8b3ff5.json</t>
+  </si>
+  <si>
     <t>64e25707-5df1-4573-b921-47e82f8b3ff5</t>
   </si>
   <si>
@@ -545,6 +605,9 @@
     <t>巻20</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/570bf244-aea3-4fe3-9781-9bfe47c9434b.json</t>
+  </si>
+  <si>
     <t>570bf244-aea3-4fe3-9781-9bfe47c9434b</t>
   </si>
   <si>
@@ -563,6 +626,9 @@
     <t>巻21</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d02edd84-064a-4abf-a02c-9367567191e3.json</t>
+  </si>
+  <si>
     <t>d02edd84-064a-4abf-a02c-9367567191e3</t>
   </si>
   <si>
@@ -581,6 +647,9 @@
     <t>巻22</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/98bb382a-0b0a-4c20-9432-ebc0901a4022.json</t>
+  </si>
+  <si>
     <t>98bb382a-0b0a-4c20-9432-ebc0901a4022</t>
   </si>
   <si>
@@ -599,6 +668,9 @@
     <t>巻23</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/fd7208cb-f9ca-4b71-b8d8-42378194c66a.json</t>
+  </si>
+  <si>
     <t>fd7208cb-f9ca-4b71-b8d8-42378194c66a</t>
   </si>
   <si>
@@ -617,6 +689,9 @@
     <t>巻24</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a5805e1f-9356-4e20-add4-0bc06597ac1e.json</t>
+  </si>
+  <si>
     <t>a5805e1f-9356-4e20-add4-0bc06597ac1e</t>
   </si>
   <si>
@@ -635,6 +710,9 @@
     <t>巻25</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9aa21685-4f6a-423f-95d7-9575daa0fbf7.json</t>
+  </si>
+  <si>
     <t>9aa21685-4f6a-423f-95d7-9575daa0fbf7</t>
   </si>
   <si>
@@ -653,6 +731,9 @@
     <t>巻26</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/53117e96-ac23-4cb6-8a71-ced2313f54f8.json</t>
+  </si>
+  <si>
     <t>53117e96-ac23-4cb6-8a71-ced2313f54f8</t>
   </si>
   <si>
@@ -671,6 +752,9 @@
     <t>巻27</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bf762dfe-4ba3-47ce-900b-2a32df76d92b.json</t>
+  </si>
+  <si>
     <t>bf762dfe-4ba3-47ce-900b-2a32df76d92b</t>
   </si>
   <si>
@@ -689,6 +773,9 @@
     <t>巻28</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8855249a-8280-46dd-a552-f61878a3fcd0.json</t>
+  </si>
+  <si>
     <t>8855249a-8280-46dd-a552-f61878a3fcd0</t>
   </si>
   <si>
@@ -707,6 +794,9 @@
     <t>巻29</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9e3f3ba5-7d16-40af-8e42-c91fbdf9addd.json</t>
+  </si>
+  <si>
     <t>9e3f3ba5-7d16-40af-8e42-c91fbdf9addd</t>
   </si>
   <si>
@@ -725,6 +815,9 @@
     <t>巻30</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7a3e1bfb-869e-43af-b9c5-4123570c175d.json</t>
+  </si>
+  <si>
     <t>7a3e1bfb-869e-43af-b9c5-4123570c175d</t>
   </si>
   <si>
@@ -743,6 +836,9 @@
     <t>巻31</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0d1ef244-a987-4cc9-a427-ffad44fab029.json</t>
+  </si>
+  <si>
     <t>0d1ef244-a987-4cc9-a427-ffad44fab029</t>
   </si>
   <si>
@@ -761,6 +857,9 @@
     <t>巻32</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7851fb55-9a83-40c4-8a16-50fa4da8cb05.json</t>
+  </si>
+  <si>
     <t>7851fb55-9a83-40c4-8a16-50fa4da8cb05</t>
   </si>
   <si>
@@ -779,6 +878,9 @@
     <t>巻33</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/cdeb6393-fa4a-4df9-93f9-be88020ecbfb.json</t>
+  </si>
+  <si>
     <t>cdeb6393-fa4a-4df9-93f9-be88020ecbfb</t>
   </si>
   <si>
@@ -797,6 +899,9 @@
     <t>巻34</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/57e31ad8-7563-4560-9192-19038e75e13c.json</t>
+  </si>
+  <si>
     <t>57e31ad8-7563-4560-9192-19038e75e13c</t>
   </si>
   <si>
@@ -815,6 +920,9 @@
     <t>巻35</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ddd82b47-aa34-4825-bf84-fa544b6c892a.json</t>
+  </si>
+  <si>
     <t>ddd82b47-aa34-4825-bf84-fa544b6c892a</t>
   </si>
   <si>
@@ -833,6 +941,9 @@
     <t>巻36</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bd0dd2db-826d-4c43-874e-901dc0bb10b3.json</t>
+  </si>
+  <si>
     <t>bd0dd2db-826d-4c43-874e-901dc0bb10b3</t>
   </si>
   <si>
@@ -851,6 +962,9 @@
     <t>巻37</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c5ef28fe-0c14-4819-9b13-45793b41f6ca.json</t>
+  </si>
+  <si>
     <t>c5ef28fe-0c14-4819-9b13-45793b41f6ca</t>
   </si>
   <si>
@@ -869,6 +983,9 @@
     <t>巻38</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8e0cc5cc-78e0-40ad-8ce3-247f71ff2946.json</t>
+  </si>
+  <si>
     <t>8e0cc5cc-78e0-40ad-8ce3-247f71ff2946</t>
   </si>
   <si>
@@ -887,6 +1004,9 @@
     <t>巻39</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/862c7cd0-4047-4e50-adab-eba8e7c16cc8.json</t>
+  </si>
+  <si>
     <t>862c7cd0-4047-4e50-adab-eba8e7c16cc8</t>
   </si>
   <si>
@@ -905,6 +1025,9 @@
     <t>巻40</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b32dccdb-f3df-4399-9660-798763e71f26.json</t>
+  </si>
+  <si>
     <t>b32dccdb-f3df-4399-9660-798763e71f26</t>
   </si>
   <si>
@@ -923,6 +1046,9 @@
     <t>巻41</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6cfb64d5-5449-4eed-b754-f6e7cf76c93d.json</t>
+  </si>
+  <si>
     <t>6cfb64d5-5449-4eed-b754-f6e7cf76c93d</t>
   </si>
   <si>
@@ -941,6 +1067,9 @@
     <t>巻42</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/3470288d-f7da-430f-a43b-453a8bf6f0dc.json</t>
+  </si>
+  <si>
     <t>3470288d-f7da-430f-a43b-453a8bf6f0dc</t>
   </si>
   <si>
@@ -959,6 +1088,9 @@
     <t>巻43</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/04504bbf-fd5a-4b15-b485-5320c2835afe.json</t>
+  </si>
+  <si>
     <t>04504bbf-fd5a-4b15-b485-5320c2835afe</t>
   </si>
   <si>
@@ -977,6 +1109,9 @@
     <t>巻44</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0d20f60e-1aa9-4b46-8d9a-702d24632cd5.json</t>
+  </si>
+  <si>
     <t>0d20f60e-1aa9-4b46-8d9a-702d24632cd5</t>
   </si>
   <si>
@@ -995,6 +1130,9 @@
     <t>巻45</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b5d3fba2-a319-42f9-b46e-846177296672.json</t>
+  </si>
+  <si>
     <t>b5d3fba2-a319-42f9-b46e-846177296672</t>
   </si>
   <si>
@@ -1013,6 +1151,9 @@
     <t>巻46</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8de6f4e0-3c2d-4a60-ad08-00f6f2607c51.json</t>
+  </si>
+  <si>
     <t>8de6f4e0-3c2d-4a60-ad08-00f6f2607c51</t>
   </si>
   <si>
@@ -1031,6 +1172,9 @@
     <t>巻47</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8a7cb286-9bf0-4b6e-b24a-ad76fb561dac.json</t>
+  </si>
+  <si>
     <t>8a7cb286-9bf0-4b6e-b24a-ad76fb561dac</t>
   </si>
   <si>
@@ -1049,6 +1193,9 @@
     <t>巻48</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e90df5b8-e995-40a5-970d-73b27e973d56.json</t>
+  </si>
+  <si>
     <t>e90df5b8-e995-40a5-970d-73b27e973d56</t>
   </si>
   <si>
@@ -1067,6 +1214,9 @@
     <t>巻49</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b914b6c8-cfd8-4f9c-b8d4-ed1cfb8729d3.json</t>
+  </si>
+  <si>
     <t>b914b6c8-cfd8-4f9c-b8d4-ed1cfb8729d3</t>
   </si>
   <si>
@@ -1085,6 +1235,9 @@
     <t>巻50</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/42f79cbd-d417-4272-813e-1cb92e01be64.json</t>
+  </si>
+  <si>
     <t>42f79cbd-d417-4272-813e-1cb92e01be64</t>
   </si>
   <si>
@@ -1103,6 +1256,9 @@
     <t>不分巻-1</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/09691e0c-4732-4ec8-8d29-65a19b59c742.json</t>
+  </si>
+  <si>
     <t>09691e0c-4732-4ec8-8d29-65a19b59c742</t>
   </si>
   <si>
@@ -1121,6 +1277,9 @@
     <t>不分巻-2</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/91c20f07-f4a1-48dd-bd71-ba34220ae40f.json</t>
+  </si>
+  <si>
     <t>91c20f07-f4a1-48dd-bd71-ba34220ae40f</t>
   </si>
   <si>
@@ -1139,6 +1298,9 @@
     <t>不分巻-3</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/97bbc616-5961-4f89-9774-ef0fb166ad3a.json</t>
+  </si>
+  <si>
     <t>97bbc616-5961-4f89-9774-ef0fb166ad3a</t>
   </si>
   <si>
@@ -1157,6 +1319,9 @@
     <t>不分巻-4</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/061eecbd-507c-4211-a726-4b6d7abaf356.json</t>
+  </si>
+  <si>
     <t>061eecbd-507c-4211-a726-4b6d7abaf356</t>
   </si>
   <si>
@@ -1175,6 +1340,9 @@
     <t>不分巻-5</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/620e6ad5-9655-4e66-8d47-09f93bde50aa.json</t>
+  </si>
+  <si>
     <t>620e6ad5-9655-4e66-8d47-09f93bde50aa</t>
   </si>
   <si>
@@ -1193,6 +1361,9 @@
     <t>不分巻-6</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/767b8c16-8a8b-45df-acd3-02635d226bed.json</t>
+  </si>
+  <si>
     <t>767b8c16-8a8b-45df-acd3-02635d226bed</t>
   </si>
   <si>
@@ -1211,6 +1382,9 @@
     <t>不分巻-7</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/665903cd-fc75-4d2a-a173-5dd0bc8cb246.json</t>
+  </si>
+  <si>
     <t>665903cd-fc75-4d2a-a173-5dd0bc8cb246</t>
   </si>
   <si>
@@ -1229,6 +1403,9 @@
     <t>不分巻-8</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e478ca47-bbb2-469b-aa20-2907bbd63e08.json</t>
+  </si>
+  <si>
     <t>e478ca47-bbb2-469b-aa20-2907bbd63e08</t>
   </si>
   <si>
@@ -1247,6 +1424,9 @@
     <t>不分巻-9</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/fe18bcd5-3346-478e-b384-0fa1bbc60962.json</t>
+  </si>
+  <si>
     <t>fe18bcd5-3346-478e-b384-0fa1bbc60962</t>
   </si>
   <si>
@@ -1265,6 +1445,9 @@
     <t>不分巻-10</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/94ed1e89-c5f2-4e3b-9777-da7931ffd812.json</t>
+  </si>
+  <si>
     <t>94ed1e89-c5f2-4e3b-9777-da7931ffd812</t>
   </si>
   <si>
@@ -1283,6 +1466,9 @@
     <t>不分巻-11</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/385ed1f0-6b9f-4d74-a200-1f64381fade3.json</t>
+  </si>
+  <si>
     <t>385ed1f0-6b9f-4d74-a200-1f64381fade3</t>
   </si>
   <si>
@@ -1301,6 +1487,9 @@
     <t>不分巻-12</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7364d439-b8ea-416c-9490-116f0c1937bb.json</t>
+  </si>
+  <si>
     <t>7364d439-b8ea-416c-9490-116f0c1937bb</t>
   </si>
   <si>
@@ -1319,6 +1508,9 @@
     <t>不分巻-13</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e5b491bb-5e75-4054-9fef-b9e4eaa7ebfa.json</t>
+  </si>
+  <si>
     <t>e5b491bb-5e75-4054-9fef-b9e4eaa7ebfa</t>
   </si>
   <si>
@@ -1335,6 +1527,9 @@
   </si>
   <si>
     <t>不分巻-14</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ff68d19b-cd93-473e-a8b8-6505759f9b7c.json</t>
   </si>
   <si>
     <t>ff68d19b-cd93-473e-a8b8-6505759f9b7c</t>
@@ -1685,7 +1880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AD66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,7 +1888,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1781,43 +1976,46 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>41</v>
@@ -1867,13 +2065,16 @@
       <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" t="n">
         <v>3354</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
@@ -1886,47 +2087,50 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
       <c r="W3" t="s"/>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>68</v>
+      </c>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
       <c r="AB3" t="s"/>
-      <c r="AC3" t="n">
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
@@ -1939,47 +2143,50 @@
       <c r="J4" t="s"/>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
       <c r="W4" t="s"/>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
-      <c r="AC4" t="n">
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -1992,47 +2199,50 @@
       <c r="J5" t="s"/>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="s">
+        <v>67</v>
+      </c>
       <c r="W5" t="s"/>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
       <c r="AB5" t="s"/>
-      <c r="AC5" t="n">
+      <c r="AC5" t="s"/>
+      <c r="AD5" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -2045,47 +2255,50 @@
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
       <c r="W6" t="s"/>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
       <c r="Z6" t="s"/>
       <c r="AA6" t="s"/>
       <c r="AB6" t="s"/>
-      <c r="AC6" t="n">
+      <c r="AC6" t="s"/>
+      <c r="AD6" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -2098,47 +2311,50 @@
       <c r="J7" t="s"/>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>64</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s">
+        <v>67</v>
+      </c>
       <c r="W7" t="s"/>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
       <c r="Z7" t="s"/>
       <c r="AA7" t="s"/>
       <c r="AB7" t="s"/>
-      <c r="AC7" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -2151,47 +2367,50 @@
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s">
+        <v>67</v>
+      </c>
       <c r="W8" t="s"/>
-      <c r="X8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
       <c r="Z8" t="s"/>
       <c r="AA8" t="s"/>
       <c r="AB8" t="s"/>
-      <c r="AC8" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AC8" t="s"/>
+      <c r="AD8" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -2204,47 +2423,50 @@
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R9" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="S9" t="s">
+        <v>66</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s">
+        <v>67</v>
+      </c>
       <c r="W9" t="s"/>
-      <c r="X9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
       <c r="Z9" t="s"/>
       <c r="AA9" t="s"/>
       <c r="AB9" t="s"/>
-      <c r="AC9" t="n">
+      <c r="AC9" t="s"/>
+      <c r="AD9" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -2257,47 +2479,50 @@
       <c r="J10" t="s"/>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="R10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="S10" t="s">
+        <v>66</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
       <c r="W10" t="s"/>
-      <c r="X10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
       <c r="Z10" t="s"/>
       <c r="AA10" t="s"/>
       <c r="AB10" t="s"/>
-      <c r="AC10" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AC10" t="s"/>
+      <c r="AD10" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -2310,47 +2535,50 @@
       <c r="J11" t="s"/>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="Q11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="R11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="S11" t="s">
+        <v>66</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s">
+        <v>67</v>
+      </c>
       <c r="W11" t="s"/>
-      <c r="X11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
       <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
       <c r="AB11" t="s"/>
-      <c r="AC11" t="n">
+      <c r="AC11" t="s"/>
+      <c r="AD11" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -2363,47 +2591,50 @@
       <c r="J12" t="s"/>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="R12" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="S12" t="s">
+        <v>66</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s">
-        <v>65</v>
-      </c>
-      <c r="V12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s">
+        <v>67</v>
+      </c>
       <c r="W12" t="s"/>
-      <c r="X12" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
       <c r="Z12" t="s"/>
       <c r="AA12" t="s"/>
       <c r="AB12" t="s"/>
-      <c r="AC12" t="n">
+      <c r="AC12" t="s"/>
+      <c r="AD12" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -2416,47 +2647,50 @@
       <c r="J13" t="s"/>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="R13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s">
-        <v>65</v>
-      </c>
-      <c r="V13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s">
+        <v>67</v>
+      </c>
       <c r="W13" t="s"/>
-      <c r="X13" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
       <c r="Z13" t="s"/>
       <c r="AA13" t="s"/>
       <c r="AB13" t="s"/>
-      <c r="AC13" t="n">
+      <c r="AC13" t="s"/>
+      <c r="AD13" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s"/>
       <c r="C14" t="s"/>
@@ -2469,47 +2703,50 @@
       <c r="J14" t="s"/>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="R14" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="S14" t="s">
+        <v>66</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s">
-        <v>65</v>
-      </c>
-      <c r="V14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s">
+        <v>67</v>
+      </c>
       <c r="W14" t="s"/>
-      <c r="X14" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
       <c r="Z14" t="s"/>
       <c r="AA14" t="s"/>
       <c r="AB14" t="s"/>
-      <c r="AC14" t="n">
+      <c r="AC14" t="s"/>
+      <c r="AD14" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -2522,47 +2759,50 @@
       <c r="J15" t="s"/>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="R15" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s">
+        <v>67</v>
+      </c>
       <c r="W15" t="s"/>
-      <c r="X15" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
       <c r="AB15" t="s"/>
-      <c r="AC15" t="n">
+      <c r="AC15" t="s"/>
+      <c r="AD15" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -2575,47 +2815,50 @@
       <c r="J16" t="s"/>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="Q16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="R16" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="S16" t="s">
+        <v>66</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s">
-        <v>65</v>
-      </c>
-      <c r="V16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s">
+        <v>67</v>
+      </c>
       <c r="W16" t="s"/>
-      <c r="X16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
       <c r="Z16" t="s"/>
       <c r="AA16" t="s"/>
       <c r="AB16" t="s"/>
-      <c r="AC16" t="n">
+      <c r="AC16" t="s"/>
+      <c r="AD16" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -2628,47 +2871,50 @@
       <c r="J17" t="s"/>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="R17" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="S17" t="s">
+        <v>66</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s">
-        <v>65</v>
-      </c>
-      <c r="V17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s">
+        <v>67</v>
+      </c>
       <c r="W17" t="s"/>
-      <c r="X17" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
       <c r="Z17" t="s"/>
       <c r="AA17" t="s"/>
       <c r="AB17" t="s"/>
-      <c r="AC17" t="n">
+      <c r="AC17" t="s"/>
+      <c r="AD17" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s"/>
       <c r="C18" t="s"/>
@@ -2681,47 +2927,50 @@
       <c r="J18" t="s"/>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="Q18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>64</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="S18" t="s">
+        <v>66</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s">
-        <v>65</v>
-      </c>
-      <c r="V18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s">
+        <v>67</v>
+      </c>
       <c r="W18" t="s"/>
-      <c r="X18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
       <c r="Z18" t="s"/>
       <c r="AA18" t="s"/>
       <c r="AB18" t="s"/>
-      <c r="AC18" t="n">
+      <c r="AC18" t="s"/>
+      <c r="AD18" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
@@ -2734,47 +2983,50 @@
       <c r="J19" t="s"/>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="Q19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="R19" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="S19" t="s">
+        <v>66</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s">
-        <v>65</v>
-      </c>
-      <c r="V19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s">
+        <v>67</v>
+      </c>
       <c r="W19" t="s"/>
-      <c r="X19" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
       <c r="Z19" t="s"/>
       <c r="AA19" t="s"/>
       <c r="AB19" t="s"/>
-      <c r="AC19" t="n">
+      <c r="AC19" t="s"/>
+      <c r="AD19" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s"/>
       <c r="C20" t="s"/>
@@ -2787,47 +3039,50 @@
       <c r="J20" t="s"/>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="Q20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="R20" t="s">
-        <v>64</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="S20" t="s">
+        <v>66</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s">
-        <v>65</v>
-      </c>
-      <c r="V20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="s">
+        <v>67</v>
+      </c>
       <c r="W20" t="s"/>
-      <c r="X20" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
       <c r="Z20" t="s"/>
       <c r="AA20" t="s"/>
       <c r="AB20" t="s"/>
-      <c r="AC20" t="n">
+      <c r="AC20" t="s"/>
+      <c r="AD20" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -2840,47 +3095,50 @@
       <c r="J21" t="s"/>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="Q21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="R21" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="S21" t="s">
+        <v>66</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s">
-        <v>65</v>
-      </c>
-      <c r="V21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s">
+        <v>67</v>
+      </c>
       <c r="W21" t="s"/>
-      <c r="X21" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
       <c r="AB21" t="s"/>
-      <c r="AC21" t="n">
+      <c r="AC21" t="s"/>
+      <c r="AD21" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -2893,47 +3151,50 @@
       <c r="J22" t="s"/>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="Q22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="R22" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="S22" t="s">
+        <v>66</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s">
-        <v>65</v>
-      </c>
-      <c r="V22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s">
+        <v>67</v>
+      </c>
       <c r="W22" t="s"/>
-      <c r="X22" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
       <c r="Z22" t="s"/>
       <c r="AA22" t="s"/>
       <c r="AB22" t="s"/>
-      <c r="AC22" t="n">
+      <c r="AC22" t="s"/>
+      <c r="AD22" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -2946,47 +3207,50 @@
       <c r="J23" t="s"/>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="Q23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="R23" t="s">
-        <v>64</v>
-      </c>
-      <c r="S23" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="S23" t="s">
+        <v>66</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s">
-        <v>65</v>
-      </c>
-      <c r="V23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s">
+        <v>67</v>
+      </c>
       <c r="W23" t="s"/>
-      <c r="X23" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
       <c r="Z23" t="s"/>
       <c r="AA23" t="s"/>
       <c r="AB23" t="s"/>
-      <c r="AC23" t="n">
+      <c r="AC23" t="s"/>
+      <c r="AD23" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -2999,47 +3263,50 @@
       <c r="J24" t="s"/>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="Q24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="S24" t="s">
+        <v>66</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s">
-        <v>65</v>
-      </c>
-      <c r="V24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="s">
+        <v>67</v>
+      </c>
       <c r="W24" t="s"/>
-      <c r="X24" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
       <c r="AB24" t="s"/>
-      <c r="AC24" t="n">
+      <c r="AC24" t="s"/>
+      <c r="AD24" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -3052,47 +3319,50 @@
       <c r="J25" t="s"/>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="Q25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="R25" t="s">
-        <v>64</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="S25" t="s">
+        <v>66</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s">
-        <v>65</v>
-      </c>
-      <c r="V25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s">
+        <v>67</v>
+      </c>
       <c r="W25" t="s"/>
-      <c r="X25" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
       <c r="Z25" t="s"/>
       <c r="AA25" t="s"/>
       <c r="AB25" t="s"/>
-      <c r="AC25" t="n">
+      <c r="AC25" t="s"/>
+      <c r="AD25" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -3105,47 +3375,50 @@
       <c r="J26" t="s"/>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="Q26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="R26" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="S26" t="s">
+        <v>66</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s">
-        <v>65</v>
-      </c>
-      <c r="V26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s">
+        <v>67</v>
+      </c>
       <c r="W26" t="s"/>
-      <c r="X26" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
       <c r="Z26" t="s"/>
       <c r="AA26" t="s"/>
       <c r="AB26" t="s"/>
-      <c r="AC26" t="n">
+      <c r="AC26" t="s"/>
+      <c r="AD26" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -3158,47 +3431,50 @@
       <c r="J27" t="s"/>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="Q27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="R27" t="s">
-        <v>64</v>
-      </c>
-      <c r="S27" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="S27" t="s">
+        <v>66</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s">
-        <v>65</v>
-      </c>
-      <c r="V27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="s">
+        <v>67</v>
+      </c>
       <c r="W27" t="s"/>
-      <c r="X27" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>236</v>
+      </c>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
       <c r="AB27" t="s"/>
-      <c r="AC27" t="n">
+      <c r="AC27" t="s"/>
+      <c r="AD27" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
@@ -3211,47 +3487,50 @@
       <c r="J28" t="s"/>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="R28" t="s">
-        <v>64</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="S28" t="s">
+        <v>66</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s">
-        <v>65</v>
-      </c>
-      <c r="V28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s">
+        <v>67</v>
+      </c>
       <c r="W28" t="s"/>
-      <c r="X28" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
       <c r="Z28" t="s"/>
       <c r="AA28" t="s"/>
       <c r="AB28" t="s"/>
-      <c r="AC28" t="n">
+      <c r="AC28" t="s"/>
+      <c r="AD28" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -3264,47 +3543,50 @@
       <c r="J29" t="s"/>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="Q29" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="R29" t="s">
-        <v>64</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="S29" t="s">
+        <v>66</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s">
-        <v>65</v>
-      </c>
-      <c r="V29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s">
+        <v>67</v>
+      </c>
       <c r="W29" t="s"/>
-      <c r="X29" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>250</v>
+      </c>
       <c r="Z29" t="s"/>
       <c r="AA29" t="s"/>
       <c r="AB29" t="s"/>
-      <c r="AC29" t="n">
+      <c r="AC29" t="s"/>
+      <c r="AD29" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
@@ -3317,47 +3599,50 @@
       <c r="J30" t="s"/>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="Q30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="R30" t="s">
-        <v>64</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>256</v>
+      </c>
+      <c r="S30" t="s">
+        <v>66</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s">
-        <v>65</v>
-      </c>
-      <c r="V30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="s">
+        <v>67</v>
+      </c>
       <c r="W30" t="s"/>
-      <c r="X30" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
       <c r="Z30" t="s"/>
       <c r="AA30" t="s"/>
       <c r="AB30" t="s"/>
-      <c r="AC30" t="n">
+      <c r="AC30" t="s"/>
+      <c r="AD30" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -3370,47 +3655,50 @@
       <c r="J31" t="s"/>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="Q31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="R31" t="s">
-        <v>64</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="S31" t="s">
+        <v>66</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s">
-        <v>65</v>
-      </c>
-      <c r="V31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="s">
+        <v>67</v>
+      </c>
       <c r="W31" t="s"/>
-      <c r="X31" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>264</v>
+      </c>
       <c r="Z31" t="s"/>
       <c r="AA31" t="s"/>
       <c r="AB31" t="s"/>
-      <c r="AC31" t="n">
+      <c r="AC31" t="s"/>
+      <c r="AD31" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
@@ -3423,47 +3711,50 @@
       <c r="J32" t="s"/>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>268</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="Q32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="R32" t="s">
-        <v>64</v>
-      </c>
-      <c r="S32" t="s"/>
+        <v>270</v>
+      </c>
+      <c r="S32" t="s">
+        <v>66</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s">
-        <v>65</v>
-      </c>
-      <c r="V32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="s">
+        <v>67</v>
+      </c>
       <c r="W32" t="s"/>
-      <c r="X32" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>271</v>
+      </c>
       <c r="Z32" t="s"/>
       <c r="AA32" t="s"/>
       <c r="AB32" t="s"/>
-      <c r="AC32" t="n">
+      <c r="AC32" t="s"/>
+      <c r="AD32" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="s"/>
@@ -3476,47 +3767,50 @@
       <c r="J33" t="s"/>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="Q33" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="R33" t="s">
-        <v>64</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>277</v>
+      </c>
+      <c r="S33" t="s">
+        <v>66</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s">
-        <v>65</v>
-      </c>
-      <c r="V33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="s">
+        <v>67</v>
+      </c>
       <c r="W33" t="s"/>
-      <c r="X33" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>278</v>
+      </c>
       <c r="Z33" t="s"/>
       <c r="AA33" t="s"/>
       <c r="AB33" t="s"/>
-      <c r="AC33" t="n">
+      <c r="AC33" t="s"/>
+      <c r="AD33" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="s"/>
@@ -3529,47 +3823,50 @@
       <c r="J34" t="s"/>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="Q34" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
-      </c>
-      <c r="S34" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="S34" t="s">
+        <v>66</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s">
-        <v>65</v>
-      </c>
-      <c r="V34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s">
+        <v>67</v>
+      </c>
       <c r="W34" t="s"/>
-      <c r="X34" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>285</v>
+      </c>
       <c r="Z34" t="s"/>
       <c r="AA34" t="s"/>
       <c r="AB34" t="s"/>
-      <c r="AC34" t="n">
+      <c r="AC34" t="s"/>
+      <c r="AD34" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -3582,47 +3879,50 @@
       <c r="J35" t="s"/>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="Q35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="R35" t="s">
-        <v>64</v>
-      </c>
-      <c r="S35" t="s"/>
+        <v>291</v>
+      </c>
+      <c r="S35" t="s">
+        <v>66</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s">
-        <v>65</v>
-      </c>
-      <c r="V35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s">
+        <v>67</v>
+      </c>
       <c r="W35" t="s"/>
-      <c r="X35" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
       <c r="Z35" t="s"/>
       <c r="AA35" t="s"/>
       <c r="AB35" t="s"/>
-      <c r="AC35" t="n">
+      <c r="AC35" t="s"/>
+      <c r="AD35" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -3635,47 +3935,50 @@
       <c r="J36" t="s"/>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="N36" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="Q36" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="R36" t="s">
-        <v>64</v>
-      </c>
-      <c r="S36" t="s"/>
+        <v>298</v>
+      </c>
+      <c r="S36" t="s">
+        <v>66</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s">
-        <v>65</v>
-      </c>
-      <c r="V36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="s">
+        <v>67</v>
+      </c>
       <c r="W36" t="s"/>
-      <c r="X36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>299</v>
+      </c>
       <c r="Z36" t="s"/>
       <c r="AA36" t="s"/>
       <c r="AB36" t="s"/>
-      <c r="AC36" t="n">
+      <c r="AC36" t="s"/>
+      <c r="AD36" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s"/>
@@ -3688,47 +3991,50 @@
       <c r="J37" t="s"/>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="P37" t="s">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="Q37" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="R37" t="s">
-        <v>64</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>305</v>
+      </c>
+      <c r="S37" t="s">
+        <v>66</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s">
-        <v>65</v>
-      </c>
-      <c r="V37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="s">
+        <v>67</v>
+      </c>
       <c r="W37" t="s"/>
-      <c r="X37" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>306</v>
+      </c>
       <c r="Z37" t="s"/>
       <c r="AA37" t="s"/>
       <c r="AB37" t="s"/>
-      <c r="AC37" t="n">
+      <c r="AC37" t="s"/>
+      <c r="AD37" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
@@ -3741,47 +4047,50 @@
       <c r="J38" t="s"/>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="N38" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="Q38" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="R38" t="s">
-        <v>64</v>
-      </c>
-      <c r="S38" t="s"/>
+        <v>312</v>
+      </c>
+      <c r="S38" t="s">
+        <v>66</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s">
-        <v>65</v>
-      </c>
-      <c r="V38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="s">
+        <v>67</v>
+      </c>
       <c r="W38" t="s"/>
-      <c r="X38" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>313</v>
+      </c>
       <c r="Z38" t="s"/>
       <c r="AA38" t="s"/>
       <c r="AB38" t="s"/>
-      <c r="AC38" t="n">
+      <c r="AC38" t="s"/>
+      <c r="AD38" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -3794,47 +4103,50 @@
       <c r="J39" t="s"/>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="P39" t="s">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="Q39" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="R39" t="s">
-        <v>64</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>319</v>
+      </c>
+      <c r="S39" t="s">
+        <v>66</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s">
-        <v>65</v>
-      </c>
-      <c r="V39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="s">
+        <v>67</v>
+      </c>
       <c r="W39" t="s"/>
-      <c r="X39" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>320</v>
+      </c>
       <c r="Z39" t="s"/>
       <c r="AA39" t="s"/>
       <c r="AB39" t="s"/>
-      <c r="AC39" t="n">
+      <c r="AC39" t="s"/>
+      <c r="AD39" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
@@ -3847,47 +4159,50 @@
       <c r="J40" t="s"/>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="N40" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="P40" t="s">
-        <v>286</v>
+        <v>63</v>
       </c>
       <c r="Q40" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="R40" t="s">
-        <v>64</v>
-      </c>
-      <c r="S40" t="s"/>
+        <v>326</v>
+      </c>
+      <c r="S40" t="s">
+        <v>66</v>
+      </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="s">
-        <v>65</v>
-      </c>
-      <c r="V40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="s">
+        <v>67</v>
+      </c>
       <c r="W40" t="s"/>
-      <c r="X40" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>327</v>
+      </c>
       <c r="Z40" t="s"/>
       <c r="AA40" t="s"/>
       <c r="AB40" t="s"/>
-      <c r="AC40" t="n">
+      <c r="AC40" t="s"/>
+      <c r="AD40" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="s"/>
@@ -3900,47 +4215,50 @@
       <c r="J41" t="s"/>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c r="N41" t="s">
-        <v>291</v>
+        <v>61</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="P41" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="Q41" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="R41" t="s">
-        <v>64</v>
-      </c>
-      <c r="S41" t="s"/>
+        <v>333</v>
+      </c>
+      <c r="S41" t="s">
+        <v>66</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s">
-        <v>65</v>
-      </c>
-      <c r="V41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="s">
+        <v>67</v>
+      </c>
       <c r="W41" t="s"/>
-      <c r="X41" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
       <c r="Z41" t="s"/>
       <c r="AA41" t="s"/>
       <c r="AB41" t="s"/>
-      <c r="AC41" t="n">
+      <c r="AC41" t="s"/>
+      <c r="AD41" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="s"/>
@@ -3953,47 +4271,50 @@
       <c r="J42" t="s"/>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="N42" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>338</v>
       </c>
       <c r="P42" t="s">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="Q42" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="R42" t="s">
-        <v>64</v>
-      </c>
-      <c r="S42" t="s"/>
+        <v>340</v>
+      </c>
+      <c r="S42" t="s">
+        <v>66</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s">
-        <v>65</v>
-      </c>
-      <c r="V42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="s">
+        <v>67</v>
+      </c>
       <c r="W42" t="s"/>
-      <c r="X42" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>341</v>
+      </c>
       <c r="Z42" t="s"/>
       <c r="AA42" t="s"/>
       <c r="AB42" t="s"/>
-      <c r="AC42" t="n">
+      <c r="AC42" t="s"/>
+      <c r="AD42" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
@@ -4006,47 +4327,50 @@
       <c r="J43" t="s"/>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="P43" t="s">
-        <v>304</v>
+        <v>63</v>
       </c>
       <c r="Q43" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="R43" t="s">
-        <v>64</v>
-      </c>
-      <c r="S43" t="s"/>
+        <v>347</v>
+      </c>
+      <c r="S43" t="s">
+        <v>66</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s">
-        <v>65</v>
-      </c>
-      <c r="V43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="s">
+        <v>67</v>
+      </c>
       <c r="W43" t="s"/>
-      <c r="X43" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>348</v>
+      </c>
       <c r="Z43" t="s"/>
       <c r="AA43" t="s"/>
       <c r="AB43" t="s"/>
-      <c r="AC43" t="n">
+      <c r="AC43" t="s"/>
+      <c r="AD43" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
@@ -4059,47 +4383,50 @@
       <c r="J44" t="s"/>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s">
-        <v>59</v>
+        <v>351</v>
       </c>
       <c r="N44" t="s">
-        <v>309</v>
+        <v>61</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>352</v>
       </c>
       <c r="P44" t="s">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="Q44" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="R44" t="s">
-        <v>64</v>
-      </c>
-      <c r="S44" t="s"/>
+        <v>354</v>
+      </c>
+      <c r="S44" t="s">
+        <v>66</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s">
-        <v>65</v>
-      </c>
-      <c r="V44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="s">
+        <v>67</v>
+      </c>
       <c r="W44" t="s"/>
-      <c r="X44" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
       <c r="Z44" t="s"/>
       <c r="AA44" t="s"/>
       <c r="AB44" t="s"/>
-      <c r="AC44" t="n">
+      <c r="AC44" t="s"/>
+      <c r="AD44" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="s"/>
@@ -4112,47 +4439,50 @@
       <c r="J45" t="s"/>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>359</v>
       </c>
       <c r="P45" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="Q45" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="R45" t="s">
-        <v>64</v>
-      </c>
-      <c r="S45" t="s"/>
+        <v>361</v>
+      </c>
+      <c r="S45" t="s">
+        <v>66</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s">
-        <v>65</v>
-      </c>
-      <c r="V45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="s">
+        <v>67</v>
+      </c>
       <c r="W45" t="s"/>
-      <c r="X45" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>362</v>
+      </c>
       <c r="Z45" t="s"/>
       <c r="AA45" t="s"/>
       <c r="AB45" t="s"/>
-      <c r="AC45" t="n">
+      <c r="AC45" t="s"/>
+      <c r="AD45" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
@@ -4165,47 +4495,50 @@
       <c r="J46" t="s"/>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s">
-        <v>59</v>
+        <v>365</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
+        <v>61</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="P46" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="Q46" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="R46" t="s">
-        <v>64</v>
-      </c>
-      <c r="S46" t="s"/>
+        <v>368</v>
+      </c>
+      <c r="S46" t="s">
+        <v>66</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s">
-        <v>65</v>
-      </c>
-      <c r="V46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="s">
+        <v>67</v>
+      </c>
       <c r="W46" t="s"/>
-      <c r="X46" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
       <c r="Z46" t="s"/>
       <c r="AA46" t="s"/>
       <c r="AB46" t="s"/>
-      <c r="AC46" t="n">
+      <c r="AC46" t="s"/>
+      <c r="AD46" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="s"/>
@@ -4218,47 +4551,50 @@
       <c r="J47" t="s"/>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s">
-        <v>327</v>
+        <v>61</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>373</v>
       </c>
       <c r="P47" t="s">
-        <v>328</v>
+        <v>63</v>
       </c>
       <c r="Q47" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="R47" t="s">
-        <v>64</v>
-      </c>
-      <c r="S47" t="s"/>
+        <v>375</v>
+      </c>
+      <c r="S47" t="s">
+        <v>66</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s">
-        <v>65</v>
-      </c>
-      <c r="V47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="s">
+        <v>67</v>
+      </c>
       <c r="W47" t="s"/>
-      <c r="X47" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
       <c r="Z47" t="s"/>
       <c r="AA47" t="s"/>
       <c r="AB47" t="s"/>
-      <c r="AC47" t="n">
+      <c r="AC47" t="s"/>
+      <c r="AD47" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s"/>
       <c r="C48" t="s"/>
@@ -4271,47 +4607,50 @@
       <c r="J48" t="s"/>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="N48" t="s">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>380</v>
       </c>
       <c r="P48" t="s">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="Q48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="R48" t="s">
-        <v>64</v>
-      </c>
-      <c r="S48" t="s"/>
+        <v>382</v>
+      </c>
+      <c r="S48" t="s">
+        <v>66</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s">
-        <v>65</v>
-      </c>
-      <c r="V48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="s">
+        <v>67</v>
+      </c>
       <c r="W48" t="s"/>
-      <c r="X48" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>383</v>
+      </c>
       <c r="Z48" t="s"/>
       <c r="AA48" t="s"/>
       <c r="AB48" t="s"/>
-      <c r="AC48" t="n">
+      <c r="AC48" t="s"/>
+      <c r="AD48" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s"/>
       <c r="C49" t="s"/>
@@ -4324,47 +4663,50 @@
       <c r="J49" t="s"/>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="N49" t="s">
-        <v>339</v>
+        <v>61</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="P49" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="Q49" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="R49" t="s">
-        <v>64</v>
-      </c>
-      <c r="S49" t="s"/>
+        <v>389</v>
+      </c>
+      <c r="S49" t="s">
+        <v>66</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s">
-        <v>65</v>
-      </c>
-      <c r="V49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="s">
+        <v>67</v>
+      </c>
       <c r="W49" t="s"/>
-      <c r="X49" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>390</v>
+      </c>
       <c r="Z49" t="s"/>
       <c r="AA49" t="s"/>
       <c r="AB49" t="s"/>
-      <c r="AC49" t="n">
+      <c r="AC49" t="s"/>
+      <c r="AD49" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s"/>
       <c r="C50" t="s"/>
@@ -4377,47 +4719,50 @@
       <c r="J50" t="s"/>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="P50" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="Q50" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="R50" t="s">
-        <v>64</v>
-      </c>
-      <c r="S50" t="s"/>
+        <v>396</v>
+      </c>
+      <c r="S50" t="s">
+        <v>66</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s">
-        <v>65</v>
-      </c>
-      <c r="V50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="s">
+        <v>67</v>
+      </c>
       <c r="W50" t="s"/>
-      <c r="X50" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>397</v>
+      </c>
       <c r="Z50" t="s"/>
       <c r="AA50" t="s"/>
       <c r="AB50" t="s"/>
-      <c r="AC50" t="n">
+      <c r="AC50" t="s"/>
+      <c r="AD50" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="s"/>
@@ -4430,47 +4775,50 @@
       <c r="J51" t="s"/>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>400</v>
       </c>
       <c r="N51" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>401</v>
       </c>
       <c r="P51" t="s">
-        <v>352</v>
+        <v>63</v>
       </c>
       <c r="Q51" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="R51" t="s">
-        <v>64</v>
-      </c>
-      <c r="S51" t="s"/>
+        <v>403</v>
+      </c>
+      <c r="S51" t="s">
+        <v>66</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s">
-        <v>65</v>
-      </c>
-      <c r="V51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="s">
+        <v>67</v>
+      </c>
       <c r="W51" t="s"/>
-      <c r="X51" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>404</v>
+      </c>
       <c r="Z51" t="s"/>
       <c r="AA51" t="s"/>
       <c r="AB51" t="s"/>
-      <c r="AC51" t="n">
+      <c r="AC51" t="s"/>
+      <c r="AD51" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -4483,47 +4831,50 @@
       <c r="J52" t="s"/>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
       <c r="N52" t="s">
-        <v>357</v>
+        <v>61</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>408</v>
       </c>
       <c r="P52" t="s">
-        <v>358</v>
+        <v>63</v>
       </c>
       <c r="Q52" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="R52" t="s">
-        <v>64</v>
-      </c>
-      <c r="S52" t="s"/>
+        <v>410</v>
+      </c>
+      <c r="S52" t="s">
+        <v>66</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s">
-        <v>65</v>
-      </c>
-      <c r="V52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="s">
+        <v>67</v>
+      </c>
       <c r="W52" t="s"/>
-      <c r="X52" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>411</v>
+      </c>
       <c r="Z52" t="s"/>
       <c r="AA52" t="s"/>
       <c r="AB52" t="s"/>
-      <c r="AC52" t="n">
+      <c r="AC52" t="s"/>
+      <c r="AD52" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="s"/>
@@ -4536,47 +4887,50 @@
       <c r="J53" t="s"/>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
       <c r="N53" t="s">
-        <v>363</v>
+        <v>61</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>415</v>
       </c>
       <c r="P53" t="s">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="Q53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="R53" t="s">
-        <v>64</v>
-      </c>
-      <c r="S53" t="s"/>
+        <v>417</v>
+      </c>
+      <c r="S53" t="s">
+        <v>66</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s">
-        <v>65</v>
-      </c>
-      <c r="V53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="s">
+        <v>67</v>
+      </c>
       <c r="W53" t="s"/>
-      <c r="X53" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>418</v>
+      </c>
       <c r="Z53" t="s"/>
       <c r="AA53" t="s"/>
       <c r="AB53" t="s"/>
-      <c r="AC53" t="n">
+      <c r="AC53" t="s"/>
+      <c r="AD53" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="s"/>
@@ -4589,47 +4943,50 @@
       <c r="J54" t="s"/>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="N54" t="s">
-        <v>369</v>
+        <v>61</v>
       </c>
       <c r="O54" t="s">
-        <v>61</v>
+        <v>422</v>
       </c>
       <c r="P54" t="s">
-        <v>370</v>
+        <v>63</v>
       </c>
       <c r="Q54" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="R54" t="s">
-        <v>64</v>
-      </c>
-      <c r="S54" t="s"/>
+        <v>424</v>
+      </c>
+      <c r="S54" t="s">
+        <v>66</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s">
-        <v>65</v>
-      </c>
-      <c r="V54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="s">
+        <v>67</v>
+      </c>
       <c r="W54" t="s"/>
-      <c r="X54" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
       <c r="Z54" t="s"/>
       <c r="AA54" t="s"/>
       <c r="AB54" t="s"/>
-      <c r="AC54" t="n">
+      <c r="AC54" t="s"/>
+      <c r="AD54" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="s"/>
@@ -4642,47 +4999,50 @@
       <c r="J55" t="s"/>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s">
-        <v>59</v>
+        <v>428</v>
       </c>
       <c r="N55" t="s">
-        <v>375</v>
+        <v>61</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="P55" t="s">
-        <v>376</v>
+        <v>63</v>
       </c>
       <c r="Q55" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="R55" t="s">
-        <v>64</v>
-      </c>
-      <c r="S55" t="s"/>
+        <v>431</v>
+      </c>
+      <c r="S55" t="s">
+        <v>66</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s">
-        <v>65</v>
-      </c>
-      <c r="V55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="s">
+        <v>67</v>
+      </c>
       <c r="W55" t="s"/>
-      <c r="X55" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>432</v>
+      </c>
       <c r="Z55" t="s"/>
       <c r="AA55" t="s"/>
       <c r="AB55" t="s"/>
-      <c r="AC55" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AC55" t="s"/>
+      <c r="AD55" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s"/>
@@ -4695,47 +5055,50 @@
       <c r="J56" t="s"/>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="M56" t="s">
-        <v>59</v>
+        <v>435</v>
       </c>
       <c r="N56" t="s">
-        <v>381</v>
+        <v>61</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>436</v>
       </c>
       <c r="P56" t="s">
-        <v>382</v>
+        <v>63</v>
       </c>
       <c r="Q56" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="R56" t="s">
-        <v>64</v>
-      </c>
-      <c r="S56" t="s"/>
+        <v>438</v>
+      </c>
+      <c r="S56" t="s">
+        <v>66</v>
+      </c>
       <c r="T56" t="s"/>
-      <c r="U56" t="s">
-        <v>65</v>
-      </c>
-      <c r="V56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="s">
+        <v>67</v>
+      </c>
       <c r="W56" t="s"/>
-      <c r="X56" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>439</v>
+      </c>
       <c r="Z56" t="s"/>
       <c r="AA56" t="s"/>
       <c r="AB56" t="s"/>
-      <c r="AC56" t="n">
+      <c r="AC56" t="s"/>
+      <c r="AD56" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="s"/>
@@ -4748,47 +5111,50 @@
       <c r="J57" t="s"/>
       <c r="K57" t="s"/>
       <c r="L57" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s">
-        <v>59</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s">
-        <v>387</v>
+        <v>61</v>
       </c>
       <c r="O57" t="s">
-        <v>61</v>
+        <v>443</v>
       </c>
       <c r="P57" t="s">
-        <v>388</v>
+        <v>63</v>
       </c>
       <c r="Q57" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="R57" t="s">
-        <v>64</v>
-      </c>
-      <c r="S57" t="s"/>
+        <v>445</v>
+      </c>
+      <c r="S57" t="s">
+        <v>66</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s">
-        <v>65</v>
-      </c>
-      <c r="V57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="s">
+        <v>67</v>
+      </c>
       <c r="W57" t="s"/>
-      <c r="X57" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>446</v>
+      </c>
       <c r="Z57" t="s"/>
       <c r="AA57" t="s"/>
       <c r="AB57" t="s"/>
-      <c r="AC57" t="n">
+      <c r="AC57" t="s"/>
+      <c r="AD57" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s"/>
@@ -4801,47 +5167,50 @@
       <c r="J58" t="s"/>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="M58" t="s">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="N58" t="s">
-        <v>393</v>
+        <v>61</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>450</v>
       </c>
       <c r="P58" t="s">
-        <v>394</v>
+        <v>63</v>
       </c>
       <c r="Q58" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="R58" t="s">
-        <v>64</v>
-      </c>
-      <c r="S58" t="s"/>
+        <v>452</v>
+      </c>
+      <c r="S58" t="s">
+        <v>66</v>
+      </c>
       <c r="T58" t="s"/>
-      <c r="U58" t="s">
-        <v>65</v>
-      </c>
-      <c r="V58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="s">
+        <v>67</v>
+      </c>
       <c r="W58" t="s"/>
-      <c r="X58" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>453</v>
+      </c>
       <c r="Z58" t="s"/>
       <c r="AA58" t="s"/>
       <c r="AB58" t="s"/>
-      <c r="AC58" t="n">
+      <c r="AC58" t="s"/>
+      <c r="AD58" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="B59" t="s"/>
       <c r="C59" t="s"/>
@@ -4854,47 +5223,50 @@
       <c r="J59" t="s"/>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="M59" t="s">
-        <v>59</v>
+        <v>456</v>
       </c>
       <c r="N59" t="s">
-        <v>399</v>
+        <v>61</v>
       </c>
       <c r="O59" t="s">
-        <v>61</v>
+        <v>457</v>
       </c>
       <c r="P59" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="Q59" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="R59" t="s">
-        <v>64</v>
-      </c>
-      <c r="S59" t="s"/>
+        <v>459</v>
+      </c>
+      <c r="S59" t="s">
+        <v>66</v>
+      </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s">
-        <v>65</v>
-      </c>
-      <c r="V59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="s">
+        <v>67</v>
+      </c>
       <c r="W59" t="s"/>
-      <c r="X59" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>460</v>
+      </c>
       <c r="Z59" t="s"/>
       <c r="AA59" t="s"/>
       <c r="AB59" t="s"/>
-      <c r="AC59" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AC59" t="s"/>
+      <c r="AD59" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s"/>
@@ -4907,47 +5279,50 @@
       <c r="J60" t="s"/>
       <c r="K60" t="s"/>
       <c r="L60" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="M60" t="s">
-        <v>59</v>
+        <v>463</v>
       </c>
       <c r="N60" t="s">
-        <v>405</v>
+        <v>61</v>
       </c>
       <c r="O60" t="s">
-        <v>61</v>
+        <v>464</v>
       </c>
       <c r="P60" t="s">
-        <v>406</v>
+        <v>63</v>
       </c>
       <c r="Q60" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="R60" t="s">
-        <v>64</v>
-      </c>
-      <c r="S60" t="s"/>
+        <v>466</v>
+      </c>
+      <c r="S60" t="s">
+        <v>66</v>
+      </c>
       <c r="T60" t="s"/>
-      <c r="U60" t="s">
-        <v>65</v>
-      </c>
-      <c r="V60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s">
+        <v>67</v>
+      </c>
       <c r="W60" t="s"/>
-      <c r="X60" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>467</v>
+      </c>
       <c r="Z60" t="s"/>
       <c r="AA60" t="s"/>
       <c r="AB60" t="s"/>
-      <c r="AC60" t="n">
+      <c r="AC60" t="s"/>
+      <c r="AD60" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="s"/>
@@ -4960,47 +5335,50 @@
       <c r="J61" t="s"/>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="M61" t="s">
-        <v>59</v>
+        <v>470</v>
       </c>
       <c r="N61" t="s">
-        <v>411</v>
+        <v>61</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>471</v>
       </c>
       <c r="P61" t="s">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="Q61" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="R61" t="s">
-        <v>64</v>
-      </c>
-      <c r="S61" t="s"/>
+        <v>473</v>
+      </c>
+      <c r="S61" t="s">
+        <v>66</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s">
-        <v>65</v>
-      </c>
-      <c r="V61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s">
+        <v>67</v>
+      </c>
       <c r="W61" t="s"/>
-      <c r="X61" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>474</v>
+      </c>
       <c r="Z61" t="s"/>
       <c r="AA61" t="s"/>
       <c r="AB61" t="s"/>
-      <c r="AC61" t="n">
+      <c r="AC61" t="s"/>
+      <c r="AD61" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="s"/>
@@ -5013,47 +5391,50 @@
       <c r="J62" t="s"/>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="M62" t="s">
-        <v>59</v>
+        <v>477</v>
       </c>
       <c r="N62" t="s">
-        <v>417</v>
+        <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>478</v>
       </c>
       <c r="P62" t="s">
-        <v>418</v>
+        <v>63</v>
       </c>
       <c r="Q62" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="R62" t="s">
-        <v>64</v>
-      </c>
-      <c r="S62" t="s"/>
+        <v>480</v>
+      </c>
+      <c r="S62" t="s">
+        <v>66</v>
+      </c>
       <c r="T62" t="s"/>
-      <c r="U62" t="s">
-        <v>65</v>
-      </c>
-      <c r="V62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="s">
+        <v>67</v>
+      </c>
       <c r="W62" t="s"/>
-      <c r="X62" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>481</v>
+      </c>
       <c r="Z62" t="s"/>
       <c r="AA62" t="s"/>
       <c r="AB62" t="s"/>
-      <c r="AC62" t="n">
+      <c r="AC62" t="s"/>
+      <c r="AD62" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="s"/>
@@ -5066,47 +5447,50 @@
       <c r="J63" t="s"/>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s">
-        <v>59</v>
+        <v>484</v>
       </c>
       <c r="N63" t="s">
-        <v>423</v>
+        <v>61</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>485</v>
       </c>
       <c r="P63" t="s">
-        <v>424</v>
+        <v>63</v>
       </c>
       <c r="Q63" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="R63" t="s">
-        <v>64</v>
-      </c>
-      <c r="S63" t="s"/>
+        <v>487</v>
+      </c>
+      <c r="S63" t="s">
+        <v>66</v>
+      </c>
       <c r="T63" t="s"/>
-      <c r="U63" t="s">
-        <v>65</v>
-      </c>
-      <c r="V63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="s">
+        <v>67</v>
+      </c>
       <c r="W63" t="s"/>
-      <c r="X63" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>488</v>
+      </c>
       <c r="Z63" t="s"/>
       <c r="AA63" t="s"/>
       <c r="AB63" t="s"/>
-      <c r="AC63" t="n">
+      <c r="AC63" t="s"/>
+      <c r="AD63" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="s"/>
@@ -5119,47 +5503,50 @@
       <c r="J64" t="s"/>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="M64" t="s">
-        <v>59</v>
+        <v>491</v>
       </c>
       <c r="N64" t="s">
-        <v>429</v>
+        <v>61</v>
       </c>
       <c r="O64" t="s">
-        <v>61</v>
+        <v>492</v>
       </c>
       <c r="P64" t="s">
-        <v>430</v>
+        <v>63</v>
       </c>
       <c r="Q64" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="R64" t="s">
-        <v>64</v>
-      </c>
-      <c r="S64" t="s"/>
+        <v>494</v>
+      </c>
+      <c r="S64" t="s">
+        <v>66</v>
+      </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s">
-        <v>65</v>
-      </c>
-      <c r="V64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="s">
+        <v>67</v>
+      </c>
       <c r="W64" t="s"/>
-      <c r="X64" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>495</v>
+      </c>
       <c r="Z64" t="s"/>
       <c r="AA64" t="s"/>
       <c r="AB64" t="s"/>
-      <c r="AC64" t="n">
+      <c r="AC64" t="s"/>
+      <c r="AD64" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="s"/>
@@ -5172,47 +5559,50 @@
       <c r="J65" t="s"/>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s">
-        <v>59</v>
+        <v>498</v>
       </c>
       <c r="N65" t="s">
-        <v>435</v>
+        <v>61</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>499</v>
       </c>
       <c r="P65" t="s">
-        <v>436</v>
+        <v>63</v>
       </c>
       <c r="Q65" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="R65" t="s">
-        <v>64</v>
-      </c>
-      <c r="S65" t="s"/>
+        <v>501</v>
+      </c>
+      <c r="S65" t="s">
+        <v>66</v>
+      </c>
       <c r="T65" t="s"/>
-      <c r="U65" t="s">
-        <v>65</v>
-      </c>
-      <c r="V65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="s">
+        <v>67</v>
+      </c>
       <c r="W65" t="s"/>
-      <c r="X65" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>502</v>
+      </c>
       <c r="Z65" t="s"/>
       <c r="AA65" t="s"/>
       <c r="AB65" t="s"/>
-      <c r="AC65" t="n">
+      <c r="AC65" t="s"/>
+      <c r="AD65" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
@@ -5225,41 +5615,44 @@
       <c r="J66" t="s"/>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="M66" t="s">
-        <v>59</v>
+        <v>505</v>
       </c>
       <c r="N66" t="s">
-        <v>441</v>
+        <v>61</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>506</v>
       </c>
       <c r="P66" t="s">
-        <v>442</v>
+        <v>63</v>
       </c>
       <c r="Q66" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="R66" t="s">
-        <v>64</v>
-      </c>
-      <c r="S66" t="s"/>
+        <v>508</v>
+      </c>
+      <c r="S66" t="s">
+        <v>66</v>
+      </c>
       <c r="T66" t="s"/>
-      <c r="U66" t="s">
-        <v>65</v>
-      </c>
-      <c r="V66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="s">
+        <v>67</v>
+      </c>
       <c r="W66" t="s"/>
-      <c r="X66" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>509</v>
+      </c>
       <c r="Z66" t="s"/>
       <c r="AA66" t="s"/>
       <c r="AB66" t="s"/>
-      <c r="AC66" t="n">
+      <c r="AC66" t="s"/>
+      <c r="AD66" t="n">
         <v>46</v>
       </c>
     </row>
